--- a/01.需求&设计/功能总表.xlsx
+++ b/01.需求&设计/功能总表.xlsx
@@ -8,15 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="49">
   <si>
     <t>No</t>
   </si>
@@ -27,9 +25,6 @@
     <t>功能</t>
   </si>
   <si>
-    <t>依赖</t>
-  </si>
-  <si>
     <t>核心</t>
   </si>
   <si>
@@ -52,6 +47,111 @@
   </si>
   <si>
     <t>组件规范</t>
+  </si>
+  <si>
+    <t>数据访问</t>
+  </si>
+  <si>
+    <t>分布式事务</t>
+  </si>
+  <si>
+    <t>读写分离（动态数据源）</t>
+  </si>
+  <si>
+    <t>系统上下文管理</t>
+  </si>
+  <si>
+    <t>上下文管理</t>
+  </si>
+  <si>
+    <t>系统常量管理</t>
+  </si>
+  <si>
+    <t>授权管理</t>
+  </si>
+  <si>
+    <t>用户管理</t>
+  </si>
+  <si>
+    <t>组织机构管理</t>
+  </si>
+  <si>
+    <t>权限管理</t>
+  </si>
+  <si>
+    <t>安全管理</t>
+  </si>
+  <si>
+    <t>主机管理</t>
+  </si>
+  <si>
+    <t>访问控制</t>
+  </si>
+  <si>
+    <t>缓存</t>
+  </si>
+  <si>
+    <t>工作流</t>
+  </si>
+  <si>
+    <t>调度管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属Jar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>core</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>core</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>context</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>context</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>security</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>security</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>schedule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -59,7 +159,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10.5"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <family val="3"/>
@@ -69,57 +169,12 @@
     </r>
   </si>
   <si>
-    <t>数据访问</t>
-  </si>
-  <si>
-    <t>分布式事务</t>
-  </si>
-  <si>
-    <t>读写分离（动态数据源）</t>
-  </si>
-  <si>
-    <t>策略管理</t>
-  </si>
-  <si>
-    <t>数据访问策略</t>
-  </si>
-  <si>
-    <t>错误处理策略</t>
-  </si>
-  <si>
-    <t>系统上下文管理</t>
-  </si>
-  <si>
-    <t>上下文管理</t>
-  </si>
-  <si>
-    <t>系统常量管理</t>
-  </si>
-  <si>
-    <t>授权管理</t>
-  </si>
-  <si>
-    <t>用户管理</t>
-  </si>
-  <si>
-    <t>组织机构管理</t>
-  </si>
-  <si>
-    <t>权限管理</t>
-  </si>
-  <si>
-    <t>安全管理</t>
-  </si>
-  <si>
-    <t>主机管理</t>
-  </si>
-  <si>
     <r>
       <t>IP</t>
     </r>
     <r>
       <rPr>
-        <sz val="10.5"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <family val="3"/>
@@ -129,25 +184,28 @@
     </r>
   </si>
   <si>
-    <t>访问控制</t>
-  </si>
-  <si>
-    <t>缓存</t>
-  </si>
-  <si>
-    <t>工作流</t>
-  </si>
-  <si>
-    <t>调度管理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>防攻击策略</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限认证策略</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>cache</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bpm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端未实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端未实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要改造</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -163,24 +221,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.5"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -191,7 +249,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -200,53 +258,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -255,22 +276,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -573,327 +595,406 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="13.125" customWidth="1"/>
-    <col min="3" max="3" width="21.875" customWidth="1"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="15.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="5"/>
-    </row>
-    <row r="3" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="4" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="5"/>
+      <c r="B4" s="3"/>
       <c r="C4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="5"/>
-    </row>
-    <row r="5" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="5"/>
+      <c r="B5" s="3"/>
       <c r="C5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="5"/>
-    </row>
-    <row r="6" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="3"/>
       <c r="C6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>6</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-    </row>
-    <row r="10" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="5"/>
-    </row>
-    <row r="11" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>8</v>
       </c>
-      <c r="B11" s="5"/>
+      <c r="B11" s="3"/>
       <c r="C11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>9</v>
       </c>
-      <c r="B12" s="5"/>
+      <c r="B12" s="3"/>
       <c r="C12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="5"/>
-    </row>
-    <row r="13" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="5"/>
-    </row>
-    <row r="14" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
-        <v>10</v>
-      </c>
-      <c r="B14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="D14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="5"/>
       <c r="C15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="5"/>
-    </row>
-    <row r="16" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="5"/>
+      <c r="D15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3"/>
       <c r="C16" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="5"/>
-    </row>
-    <row r="17" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3"/>
       <c r="C17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="5"/>
-    </row>
-    <row r="18" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="5"/>
-    </row>
-    <row r="19" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
-        <v>12</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="5"/>
-    </row>
-    <row r="20" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
-        <v>13</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B20" s="3"/>
       <c r="C20" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>14</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="4" t="s">
+      <c r="D20" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="3"/>
+      <c r="B21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>19</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="5"/>
-    </row>
-    <row r="22" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>15</v>
-      </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3"/>
+      <c r="D22" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>20</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="5"/>
-    </row>
-    <row r="23" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>16</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="5"/>
-    </row>
-    <row r="24" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>17</v>
-      </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="5"/>
-    </row>
-    <row r="25" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>18</v>
-      </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="5"/>
-    </row>
-    <row r="26" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="3"/>
-      <c r="B26" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="5"/>
-    </row>
-    <row r="27" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>19</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-    </row>
-    <row r="28" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
-        <v>20</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>48</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>